--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId3"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="18" r:id="rId5"/>
     <sheet name="Mapeamento - P2" sheetId="17" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -953,9 +953,6 @@
     <t>Sem Transformação</t>
   </si>
   <si>
-    <t>Carregar com nulo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se COD_TIPO_ATUACAO IS NOT NULL entao
       SELECT CASE IND_TIPO_CONTRATO 
         WHEN 'F' THEN RI.COD_VERBA_RH
@@ -992,10 +989,126 @@
     <t>PRO_OBTEM_CENTRO_RESULTADO(COD_TIPO_CURSO, COD_CAMPUS, NVL( COD_CURSO, COD_CURSO_EXTENSAO), COD_TURNO, NOM_PROCESSO, COD_TIPO_ATUACAO, COD_INSTITUICAO)</t>
   </si>
   <si>
-    <t>Carregar com 'PRO_APURACAO_ATUACAO_FIXA'</t>
-  </si>
-  <si>
     <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projeto: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Projeto Custo de Pessoal - Interface SIA-ADP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mapa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Apuração Atuação Variável</t>
+    </r>
+  </si>
+  <si>
+    <t>Complexidade: Simples</t>
+  </si>
+  <si>
+    <t>MES_REFERENCIA_ATUACAO</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO_RH</t>
+  </si>
+  <si>
+    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
+  </si>
+  <si>
+    <t>Preencher com o valor fixo 'N'</t>
+  </si>
+  <si>
+    <t>Preencher com o valor Fixo '0'</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DATA_ALOCACAO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
+    THEN
+      V_DESTINO := 1;
+   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
+     THEN
+      V_DESTINO := 2;
+  END IF;</t>
+  </si>
+  <si>
+    <t>IF IND_AUTORIZACAO = 3 
+ELSIF IND_FIXO_VARIAVEL = 'V' 
+ELSIF IND_TIPO_SALARIO in ('H','M') 
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>REMUNERACAO_DOCENTE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vanessa Felix</t>
+    </r>
+  </si>
+  <si>
+    <t>Vanessa Felix</t>
+  </si>
+  <si>
+    <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
+  </si>
+  <si>
+    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
+          THEN
+            --
+ ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
+          THEN
+            --
+            IF NVL(R_AP.VALOR_HORA, 0) &lt; 0
+            THEN
+              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
+            END IF;
+            --
+          END IF;</t>
   </si>
   <si>
     <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
@@ -1009,120 +1122,16 @@
             IF NVL(R_AP.VALOR_HORA, 0) &gt; 0
             THEN
               V_VALOR_MOVIMENTO := ((R_AP.VALOR_HORA * R_AP.HORA_FIXA) / 30) * V_QTDE_DIAS_TRAB;
-            ELSE
-              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
             END IF;
             --
           END IF;</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Projeto Custo de Pessoal - Interface SIA-ADP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mapa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Apuração Atuação Variável</t>
-    </r>
-  </si>
-  <si>
-    <t>Complexidade: Simples</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rafae Chaves</t>
-    </r>
-  </si>
-  <si>
-    <t>Rafael Chaves</t>
-  </si>
-  <si>
-    <t>MES_REFERENCIA_ATUACAO</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO_RH</t>
-  </si>
-  <si>
-    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
-  </si>
-  <si>
-    <t>Preencher com o valor fixo 'N'</t>
-  </si>
-  <si>
-    <t>Preencher com o valor Fixo '0'</t>
-  </si>
-  <si>
-    <t>FLAG_RETROATIVO</t>
-  </si>
-  <si>
-    <t>IND_APTO_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>DATA_ALOCACAO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>IND_DESTINO</t>
-  </si>
-  <si>
-    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
-    THEN
-      V_DESTINO := 1;
-   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
-     THEN
-      V_DESTINO := 2;
-  END IF;</t>
-  </si>
-  <si>
-    <t>IF IND_AUTORIZACAO = 3 
-ELSIF IND_FIXO_VARIAVEL = 'V' 
-ELSIF IND_TIPO_SALARIO in ('H','M') 
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>REMUNERACAO_DOCENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1879,9 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1966,6 +1972,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2148,7 +2157,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2178,7 +2187,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2245,7 +2254,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2293,7 +2302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2316,14 +2325,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2366,7 +2375,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2389,14 +2398,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2410,6 +2419,98 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18435" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18435"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s19457"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2499,6 +2600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2533,6 +2635,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2708,15 +2811,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="15" customWidth="1"/>
@@ -2725,36 +2830,36 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="110" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -2765,8 +2870,8 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="117" t="s">
         <v>71</v>
       </c>
@@ -2779,7 +2884,7 @@
       <c r="I9" s="118"/>
       <c r="J9" s="119"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
@@ -2790,7 +2895,7 @@
       <c r="I10" s="121"/>
       <c r="J10" s="122"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
         <v>74</v>
       </c>
@@ -2809,7 +2914,7 @@
       <c r="I11" s="123"/>
       <c r="J11" s="124"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>75</v>
       </c>
@@ -2817,7 +2922,7 @@
         <v>41236</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E12" s="126"/>
       <c r="F12" s="127"/>
@@ -2826,7 +2931,7 @@
       <c r="I12" s="128"/>
       <c r="J12" s="129"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
       <c r="D13" s="111"/>
@@ -2837,7 +2942,7 @@
       <c r="I13" s="115"/>
       <c r="J13" s="116"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
       <c r="D14" s="130"/>
@@ -2848,7 +2953,7 @@
       <c r="I14" s="115"/>
       <c r="J14" s="116"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
       <c r="D15" s="130"/>
@@ -2859,7 +2964,7 @@
       <c r="I15" s="115"/>
       <c r="J15" s="116"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
       <c r="D16" s="130"/>
@@ -2870,7 +2975,7 @@
       <c r="I16" s="115"/>
       <c r="J16" s="116"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
       <c r="D17" s="130"/>
@@ -2881,7 +2986,7 @@
       <c r="I17" s="131"/>
       <c r="J17" s="132"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
       <c r="D18" s="130"/>
@@ -2921,7 +3026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2929,7 +3034,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="15" customWidth="1"/>
@@ -2938,7 +3043,7 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
@@ -2947,16 +3052,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" s="41" t="str">
         <f>Identificação!D3</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -2967,8 +3072,8 @@
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +3086,7 @@
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -2998,8 +3103,8 @@
       <c r="I7" s="137"/>
       <c r="J7" s="137"/>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="90" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
@@ -3011,8 +3116,8 @@
       <c r="I8" s="138"/>
       <c r="J8" s="138"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="90" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
@@ -3024,9 +3129,9 @@
       <c r="I9" s="134"/>
       <c r="J9" s="134"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="90" t="s">
-        <v>128</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="89" t="s">
+        <v>126</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="133"/>
@@ -3037,8 +3142,8 @@
       <c r="I10" s="134"/>
       <c r="J10" s="134"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="90" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
@@ -3050,9 +3155,9 @@
       <c r="I11" s="134"/>
       <c r="J11" s="134"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="90" t="s">
-        <v>138</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="89" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="133"/>
@@ -3063,8 +3168,8 @@
       <c r="I12" s="134"/>
       <c r="J12" s="134"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="90" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="89" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
@@ -3076,8 +3181,8 @@
       <c r="I13" s="134"/>
       <c r="J13" s="134"/>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="90" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
@@ -3089,8 +3194,8 @@
       <c r="I14" s="134"/>
       <c r="J14" s="134"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="90" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
@@ -3102,7 +3207,7 @@
       <c r="I15" s="134"/>
       <c r="J15" s="134"/>
     </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1">
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3113,7 +3218,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="135" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3231,7 @@
       <c r="I17" s="136"/>
       <c r="J17" s="136"/>
     </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1">
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
         <v>62</v>
       </c>
@@ -3147,9 +3252,9 @@
       <c r="I18" s="142"/>
       <c r="J18" s="143"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
@@ -3160,7 +3265,7 @@
       <c r="I19" s="144"/>
       <c r="J19" s="144"/>
     </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1">
+    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3171,14 +3276,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="135" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="136"/>
       <c r="D21" s="136"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>63</v>
       </c>
@@ -3189,23 +3294,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="88"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="87"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" ht="25.5">
-      <c r="B24" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>140</v>
+    <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3216,7 +3321,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1">
+    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="137" t="s">
         <v>65</v>
       </c>
@@ -3229,7 +3334,7 @@
       <c r="I26" s="137"/>
       <c r="J26" s="137"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
@@ -3250,7 +3355,7 @@
       <c r="I27" s="146"/>
       <c r="J27" s="146"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3261,7 +3366,7 @@
       <c r="I28" s="145"/>
       <c r="J28" s="145"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3272,7 +3377,7 @@
       <c r="I29" s="145"/>
       <c r="J29" s="145"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3320,42 +3425,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId3"/>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3389,14 +3472,14 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="2:29">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
@@ -3434,7 +3517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3518,7 +3601,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
         <v>119</v>
       </c>
@@ -3540,7 +3623,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K4" s="67">
         <v>10</v>
@@ -3556,10 +3639,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3567,10 +3650,10 @@
       <c r="U4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="84"/>
+      <c r="V4" s="83"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="67">
         <v>10</v>
@@ -3580,7 +3663,7 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
         <v>119</v>
       </c>
@@ -3602,7 +3685,7 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5" s="67">
         <v>10</v>
@@ -3618,10 +3701,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3629,10 +3712,10 @@
       <c r="U5" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="84"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="67">
         <v>10</v>
@@ -3642,7 +3725,7 @@
       <c r="AB5" s="67"/>
       <c r="AC5" s="67"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
@@ -3664,7 +3747,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K6" s="67">
         <v>2</v>
@@ -3680,10 +3763,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3691,10 +3774,10 @@
       <c r="U6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="85"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="67">
         <v>2</v>
@@ -3704,7 +3787,7 @@
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="2:29" s="14" customFormat="1" ht="12">
+    <row r="7" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="67" t="s">
         <v>119</v>
       </c>
@@ -3726,7 +3809,7 @@
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
@@ -3740,10 +3823,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3751,10 +3834,10 @@
       <c r="U7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V7" s="86"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y7" s="67"/>
       <c r="Z7" s="67"/>
@@ -3762,7 +3845,7 @@
       <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="67" t="s">
         <v>119</v>
       </c>
@@ -3784,7 +3867,7 @@
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
@@ -3798,10 +3881,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3809,10 +3892,10 @@
       <c r="U8" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="84"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -3820,7 +3903,7 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="67" t="s">
         <v>119</v>
       </c>
@@ -3842,7 +3925,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K9" s="67">
         <v>4</v>
@@ -3858,10 +3941,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3869,10 +3952,10 @@
       <c r="U9" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="84"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="66"/>
       <c r="X9" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="67">
         <v>4</v>
@@ -3882,7 +3965,7 @@
       <c r="AB9" s="69"/>
       <c r="AC9" s="69"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="67" t="s">
         <v>119</v>
       </c>
@@ -3904,7 +3987,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K10" s="67">
         <v>1</v>
@@ -3920,10 +4003,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -3931,10 +4014,10 @@
       <c r="U10" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="84"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="66"/>
       <c r="X10" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y10" s="67">
         <v>1</v>
@@ -3944,7 +4027,7 @@
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="67" t="s">
         <v>119</v>
       </c>
@@ -3966,7 +4049,7 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K11" s="67">
         <v>4</v>
@@ -3982,10 +4065,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -3993,10 +4076,10 @@
       <c r="U11" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="84"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="66"/>
       <c r="X11" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y11" s="67">
         <v>4</v>
@@ -4006,7 +4089,7 @@
       <c r="AB11" s="69"/>
       <c r="AC11" s="69"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="67" t="s">
         <v>119</v>
       </c>
@@ -4028,7 +4111,7 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K12" s="67">
         <v>8</v>
@@ -4044,10 +4127,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4055,10 +4138,10 @@
       <c r="U12" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="V12" s="85"/>
+      <c r="V12" s="84"/>
       <c r="W12" s="66"/>
       <c r="X12" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="67">
         <v>8</v>
@@ -4068,7 +4151,7 @@
       <c r="AB12" s="69"/>
       <c r="AC12" s="69"/>
     </row>
-    <row r="13" spans="2:29" s="14" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="67" t="s">
         <v>119</v>
       </c>
@@ -4090,7 +4173,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K13" s="69">
         <v>12</v>
@@ -4108,10 +4191,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4119,10 +4202,10 @@
       <c r="U13" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="86"/>
+      <c r="V13" s="85"/>
       <c r="W13" s="66"/>
       <c r="X13" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="69">
         <v>12</v>
@@ -4134,7 +4217,7 @@
       <c r="AB13" s="69"/>
       <c r="AC13" s="69"/>
     </row>
-    <row r="14" spans="2:29" s="14" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="67" t="s">
         <v>119</v>
       </c>
@@ -4156,7 +4239,7 @@
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K14" s="67">
         <v>6</v>
@@ -4174,10 +4257,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4185,10 +4268,10 @@
       <c r="U14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V14" s="86"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="66"/>
       <c r="X14" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y14" s="67">
         <v>6</v>
@@ -4200,7 +4283,7 @@
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
     </row>
-    <row r="15" spans="2:29" s="14" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="67" t="s">
         <v>119</v>
       </c>
@@ -4222,7 +4305,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K15" s="67">
         <v>6</v>
@@ -4240,10 +4323,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4251,10 +4334,10 @@
       <c r="U15" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="86"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="66"/>
       <c r="X15" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y15" s="67">
         <v>6</v>
@@ -4266,7 +4349,7 @@
       <c r="AB15" s="69"/>
       <c r="AC15" s="69"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="67" t="s">
         <v>119</v>
       </c>
@@ -4288,7 +4371,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K16" s="67">
         <v>11</v>
@@ -4304,10 +4387,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4315,10 +4398,10 @@
       <c r="U16" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y16" s="67">
         <v>1</v>
@@ -4328,7 +4411,7 @@
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="67" t="s">
         <v>119</v>
       </c>
@@ -4350,7 +4433,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4366,10 +4449,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4377,10 +4460,10 @@
       <c r="U17" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="87"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="67"/>
       <c r="X17" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4390,7 +4473,7 @@
       <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="67" t="s">
         <v>119</v>
       </c>
@@ -4412,7 +4495,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K18" s="67">
         <v>1</v>
@@ -4428,10 +4511,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4439,10 +4522,10 @@
       <c r="U18" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="V18" s="87"/>
+      <c r="V18" s="86"/>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y18" s="67">
         <v>11</v>
@@ -4452,7 +4535,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="24">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
         <v>119</v>
       </c>
@@ -4474,7 +4557,7 @@
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" s="67">
         <v>8</v>
@@ -4491,11 +4574,11 @@
       <c r="Q19" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="S19" s="108" t="s">
-        <v>150</v>
+      <c r="R19" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T19" s="71" t="s">
         <v>91</v>
@@ -4503,10 +4586,10 @@
       <c r="U19" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="87"/>
+      <c r="V19" s="86"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y19" s="67">
         <v>8</v>
@@ -4518,7 +4601,7 @@
       <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="67" t="s">
         <v>119</v>
       </c>
@@ -4540,7 +4623,7 @@
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
       <c r="J20" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K20" s="67">
         <v>5</v>
@@ -4556,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4567,10 +4650,10 @@
       <c r="U20" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="V20" s="87"/>
+      <c r="V20" s="86"/>
       <c r="W20" s="67"/>
       <c r="X20" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y20" s="67">
         <v>5</v>
@@ -4580,7 +4663,7 @@
       <c r="AB20" s="67"/>
       <c r="AC20" s="67"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="67" t="s">
         <v>119</v>
       </c>
@@ -4602,7 +4685,7 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K21" s="67">
         <v>10</v>
@@ -4618,10 +4701,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4629,10 +4712,10 @@
       <c r="U21" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="87"/>
+      <c r="V21" s="86"/>
       <c r="W21" s="67"/>
       <c r="X21" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y21" s="67">
         <v>10</v>
@@ -4642,7 +4725,7 @@
       <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="67" t="s">
         <v>119</v>
       </c>
@@ -4664,7 +4747,7 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="67">
         <v>2</v>
@@ -4680,10 +4763,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4691,10 +4774,10 @@
       <c r="U22" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="87"/>
+      <c r="V22" s="86"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="67">
         <v>2</v>
@@ -4704,7 +4787,7 @@
       <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="67" t="s">
         <v>119</v>
       </c>
@@ -4726,7 +4809,7 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K23" s="67">
         <v>15</v>
@@ -4742,10 +4825,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4753,10 +4836,10 @@
       <c r="U23" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="V23" s="87"/>
+      <c r="V23" s="86"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y23" s="67">
         <v>15</v>
@@ -4766,7 +4849,7 @@
       <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="67" t="s">
         <v>119</v>
       </c>
@@ -4788,7 +4871,7 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K24" s="67">
         <v>2</v>
@@ -4804,10 +4887,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4815,10 +4898,10 @@
       <c r="U24" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="V24" s="87"/>
+      <c r="V24" s="86"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y24" s="67">
         <v>2</v>
@@ -4828,7 +4911,7 @@
       <c r="AB24" s="67"/>
       <c r="AC24" s="67"/>
     </row>
-    <row r="25" spans="2:29" ht="24">
+    <row r="25" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B25" s="67" t="s">
         <v>119</v>
       </c>
@@ -4850,7 +4933,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K25" s="67">
         <v>5</v>
@@ -4865,11 +4948,11 @@
       <c r="Q25" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="S25" s="108" t="s">
-        <v>150</v>
+      <c r="R25" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S25" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>97</v>
@@ -4877,10 +4960,10 @@
       <c r="U25" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="V25" s="87"/>
+      <c r="V25" s="86"/>
       <c r="W25" s="67"/>
       <c r="X25" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y25" s="67">
         <v>5</v>
@@ -4890,7 +4973,7 @@
       <c r="AB25" s="67"/>
       <c r="AC25" s="67"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="67" t="s">
         <v>119</v>
       </c>
@@ -4912,7 +4995,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K26" s="67">
         <v>11</v>
@@ -4928,10 +5011,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -4939,10 +5022,10 @@
       <c r="U26" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V26" s="87"/>
+      <c r="V26" s="86"/>
       <c r="W26" s="67"/>
       <c r="X26" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="67">
         <v>11</v>
@@ -4952,7 +5035,7 @@
       <c r="AB26" s="67"/>
       <c r="AC26" s="67"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
         <v>119</v>
       </c>
@@ -4974,7 +5057,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K27" s="67">
         <v>3</v>
@@ -4990,10 +5073,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5001,10 +5084,10 @@
       <c r="U27" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="V27" s="87"/>
+      <c r="V27" s="86"/>
       <c r="W27" s="67"/>
       <c r="X27" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y27" s="67">
         <v>3</v>
@@ -5014,7 +5097,7 @@
       <c r="AB27" s="67"/>
       <c r="AC27" s="67"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="67" t="s">
         <v>119</v>
       </c>
@@ -5036,7 +5119,7 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K28" s="67">
         <v>5</v>
@@ -5052,10 +5135,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5063,10 +5146,10 @@
       <c r="U28" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="V28" s="87"/>
+      <c r="V28" s="86"/>
       <c r="W28" s="67"/>
       <c r="X28" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y28" s="67">
         <v>5</v>
@@ -5076,7 +5159,7 @@
       <c r="AB28" s="67"/>
       <c r="AC28" s="67"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="67" t="s">
         <v>119</v>
       </c>
@@ -5098,7 +5181,7 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K29" s="67">
         <v>1</v>
@@ -5114,10 +5197,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5125,10 +5208,10 @@
       <c r="U29" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="V29" s="87"/>
+      <c r="V29" s="86"/>
       <c r="W29" s="67"/>
       <c r="X29" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y29" s="67">
         <v>1</v>
@@ -5138,7 +5221,7 @@
       <c r="AB29" s="67"/>
       <c r="AC29" s="67"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="67" t="s">
         <v>119</v>
       </c>
@@ -5154,13 +5237,13 @@
       <c r="F30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="82" t="s">
         <v>102</v>
       </c>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K30" s="67">
         <v>3</v>
@@ -5176,10 +5259,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5187,10 +5270,10 @@
       <c r="U30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="V30" s="87"/>
+      <c r="V30" s="86"/>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y30" s="67">
         <v>3</v>
@@ -5200,7 +5283,7 @@
       <c r="AB30" s="67"/>
       <c r="AC30" s="67"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="67" t="s">
         <v>119</v>
       </c>
@@ -5208,12 +5291,12 @@
         <v>120</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="80" t="s">
         <v>104</v>
       </c>
       <c r="G31" s="70" t="s">
@@ -5222,7 +5305,7 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K31" s="67">
         <v>6</v>
@@ -5238,10 +5321,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5249,10 +5332,10 @@
       <c r="U31" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V31" s="87"/>
+      <c r="V31" s="86"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y31" s="67">
         <v>6</v>
@@ -5262,7 +5345,7 @@
       <c r="AB31" s="67"/>
       <c r="AC31" s="67"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="67" t="s">
         <v>119</v>
       </c>
@@ -5275,7 +5358,7 @@
       <c r="E32" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="80" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="70" t="s">
@@ -5284,7 +5367,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K32" s="67">
         <v>1</v>
@@ -5300,21 +5383,21 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="T32" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="T32" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="U32" s="81" t="s">
+      <c r="U32" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="V32" s="87"/>
+      <c r="V32" s="86"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y32" s="67">
         <v>1</v>
@@ -5324,7 +5407,7 @@
       <c r="AB32" s="67"/>
       <c r="AC32" s="67"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="67" t="s">
         <v>119</v>
       </c>
@@ -5346,7 +5429,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K33" s="67">
         <v>1</v>
@@ -5362,10 +5445,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5373,10 +5456,10 @@
       <c r="U33" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="87"/>
+      <c r="V33" s="86"/>
       <c r="W33" s="67"/>
       <c r="X33" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y33" s="67">
         <v>1</v>
@@ -5386,7 +5469,7 @@
       <c r="AB33" s="67"/>
       <c r="AC33" s="67"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="67" t="s">
         <v>119</v>
       </c>
@@ -5408,7 +5491,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K34" s="67">
         <v>1</v>
@@ -5424,10 +5507,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5435,10 +5518,10 @@
       <c r="U34" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="V34" s="87"/>
+      <c r="V34" s="86"/>
       <c r="W34" s="67"/>
       <c r="X34" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y34" s="67">
         <v>1</v>
@@ -5448,19 +5531,19 @@
       <c r="AB34" s="67"/>
       <c r="AC34" s="67"/>
     </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="102"/>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="67" t="s">
         <v>107</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -5468,7 +5551,7 @@
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -5476,10 +5559,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5487,12 +5570,12 @@
       <c r="U35" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="V35" s="87"/>
+      <c r="V35" s="86"/>
       <c r="W35" s="67" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5502,7 +5585,7 @@
       <c r="AB35" s="67"/>
       <c r="AC35" s="67"/>
     </row>
-    <row r="36" spans="2:29" ht="228">
+    <row r="36" spans="2:29" ht="192" x14ac:dyDescent="0.2">
       <c r="B36" s="67" t="s">
         <v>119</v>
       </c>
@@ -5524,7 +5607,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K36" s="67">
         <v>12</v>
@@ -5533,30 +5616,30 @@
         <v>2</v>
       </c>
       <c r="M36" s="67"/>
-      <c r="N36" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="R36" s="65" t="s">
+      <c r="N36" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="S36" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="T36" s="82" t="s">
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S36" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="U36" s="107" t="s">
+      <c r="U36" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="87"/>
+      <c r="V36" s="86"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y36" s="67">
         <v>12</v>
@@ -5568,19 +5651,19 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="67"/>
     </row>
-    <row r="37" spans="2:29">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="106"/>
+    <row r="37" spans="2:29" ht="156" x14ac:dyDescent="0.2">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="105"/>
       <c r="G37" s="71" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
       <c r="J37" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K37" s="67">
         <v>6</v>
@@ -5589,19 +5672,19 @@
         <v>2</v>
       </c>
       <c r="M37" s="67"/>
-      <c r="N37" s="72" t="s">
-        <v>122</v>
+      <c r="N37" s="71" t="s">
+        <v>149</v>
       </c>
       <c r="O37" s="63"/>
       <c r="P37" s="64"/>
-      <c r="Q37" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="S37" s="65" t="s">
-        <v>150</v>
+      <c r="Q37" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S37" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5609,10 +5692,10 @@
       <c r="U37" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V37" s="87"/>
+      <c r="V37" s="86"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="67">
         <v>6</v>
@@ -5624,7 +5707,7 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="67"/>
     </row>
-    <row r="38" spans="2:29">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="67" t="s">
         <v>119</v>
       </c>
@@ -5646,7 +5729,7 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K38" s="67">
         <v>1</v>
@@ -5654,7 +5737,7 @@
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
       <c r="N38" s="153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="147"/>
       <c r="P38" s="147"/>
@@ -5662,10 +5745,10 @@
         <v>120</v>
       </c>
       <c r="R38" s="153" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S38" s="153" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T38" s="153" t="s">
         <v>109</v>
@@ -5676,7 +5759,7 @@
       <c r="V38" s="160"/>
       <c r="W38" s="160"/>
       <c r="X38" s="160" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y38" s="160">
         <v>30</v>
@@ -5686,14 +5769,14 @@
       <c r="AB38" s="160"/>
       <c r="AC38" s="160"/>
     </row>
-    <row r="39" spans="2:29">
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
       <c r="G39" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -5706,10 +5789,10 @@
       <c r="P39" s="148"/>
       <c r="Q39" s="154"/>
       <c r="R39" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S39" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T39" s="154"/>
       <c r="U39" s="154"/>
@@ -5722,14 +5805,14 @@
       <c r="AB39" s="161"/>
       <c r="AC39" s="161"/>
     </row>
-    <row r="40" spans="2:29">
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
@@ -5742,10 +5825,10 @@
       <c r="P40" s="148"/>
       <c r="Q40" s="154"/>
       <c r="R40" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S40" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T40" s="154"/>
       <c r="U40" s="154"/>
@@ -5758,7 +5841,7 @@
       <c r="AB40" s="161"/>
       <c r="AC40" s="161"/>
     </row>
-    <row r="41" spans="2:29">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="67" t="s">
         <v>119</v>
       </c>
@@ -5780,7 +5863,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K41" s="67">
         <v>2</v>
@@ -5792,10 +5875,10 @@
       <c r="P41" s="148"/>
       <c r="Q41" s="154"/>
       <c r="R41" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S41" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T41" s="154"/>
       <c r="U41" s="154"/>
@@ -5808,7 +5891,7 @@
       <c r="AB41" s="161"/>
       <c r="AC41" s="161"/>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
         <v>119</v>
       </c>
@@ -5830,7 +5913,7 @@
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K42" s="67">
         <v>4</v>
@@ -5842,10 +5925,10 @@
       <c r="P42" s="148"/>
       <c r="Q42" s="154"/>
       <c r="R42" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S42" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T42" s="154"/>
       <c r="U42" s="154"/>
@@ -5858,7 +5941,7 @@
       <c r="AB42" s="161"/>
       <c r="AC42" s="161"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="67" t="s">
         <v>119</v>
       </c>
@@ -5880,7 +5963,7 @@
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K43" s="67">
         <v>8</v>
@@ -5892,10 +5975,10 @@
       <c r="P43" s="148"/>
       <c r="Q43" s="154"/>
       <c r="R43" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S43" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T43" s="154"/>
       <c r="U43" s="154"/>
@@ -5908,7 +5991,7 @@
       <c r="AB43" s="161"/>
       <c r="AC43" s="161"/>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
         <v>119</v>
       </c>
@@ -5930,7 +6013,7 @@
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K44" s="67">
         <v>4</v>
@@ -5942,10 +6025,10 @@
       <c r="P44" s="148"/>
       <c r="Q44" s="154"/>
       <c r="R44" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S44" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T44" s="154"/>
       <c r="U44" s="154"/>
@@ -5958,7 +6041,7 @@
       <c r="AB44" s="161"/>
       <c r="AC44" s="161"/>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
         <v>119</v>
       </c>
@@ -5980,7 +6063,7 @@
       <c r="H45" s="67"/>
       <c r="I45" s="67"/>
       <c r="J45" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K45" s="67">
         <v>1</v>
@@ -5992,10 +6075,10 @@
       <c r="P45" s="148"/>
       <c r="Q45" s="154"/>
       <c r="R45" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S45" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T45" s="154"/>
       <c r="U45" s="154"/>
@@ -6008,7 +6091,7 @@
       <c r="AB45" s="161"/>
       <c r="AC45" s="161"/>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="67" t="s">
         <v>119</v>
       </c>
@@ -6030,7 +6113,7 @@
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K46" s="67">
         <v>3</v>
@@ -6042,10 +6125,10 @@
       <c r="P46" s="148"/>
       <c r="Q46" s="154"/>
       <c r="R46" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S46" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T46" s="154"/>
       <c r="U46" s="154"/>
@@ -6058,7 +6141,7 @@
       <c r="AB46" s="161"/>
       <c r="AC46" s="161"/>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="67" t="s">
         <v>119</v>
       </c>
@@ -6080,7 +6163,7 @@
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
       <c r="J47" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K47" s="67">
         <v>6</v>
@@ -6092,10 +6175,10 @@
       <c r="P47" s="148"/>
       <c r="Q47" s="154"/>
       <c r="R47" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S47" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T47" s="154"/>
       <c r="U47" s="154"/>
@@ -6108,7 +6191,7 @@
       <c r="AB47" s="161"/>
       <c r="AC47" s="161"/>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
         <v>119</v>
       </c>
@@ -6130,7 +6213,7 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K48" s="67">
         <v>10</v>
@@ -6142,10 +6225,10 @@
       <c r="P48" s="149"/>
       <c r="Q48" s="155"/>
       <c r="R48" s="155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S48" s="155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T48" s="155"/>
       <c r="U48" s="155"/>
@@ -6158,7 +6241,7 @@
       <c r="AB48" s="162"/>
       <c r="AC48" s="162"/>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="67" t="s">
         <v>119</v>
       </c>
@@ -6180,7 +6263,7 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K49" s="67">
         <v>3</v>
@@ -6188,7 +6271,7 @@
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
       <c r="N49" s="153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O49" s="147"/>
       <c r="P49" s="147"/>
@@ -6196,10 +6279,10 @@
         <v>120</v>
       </c>
       <c r="R49" s="153" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S49" s="153" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T49" s="153" t="s">
         <v>110</v>
@@ -6210,7 +6293,7 @@
       <c r="V49" s="160"/>
       <c r="W49" s="160"/>
       <c r="X49" s="160" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y49" s="160">
         <v>15</v>
@@ -6220,7 +6303,7 @@
       <c r="AB49" s="160"/>
       <c r="AC49" s="160"/>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="67" t="s">
         <v>119</v>
       </c>
@@ -6242,7 +6325,7 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K50" s="67">
         <v>4</v>
@@ -6254,10 +6337,10 @@
       <c r="P50" s="148"/>
       <c r="Q50" s="154"/>
       <c r="R50" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S50" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T50" s="154"/>
       <c r="U50" s="154"/>
@@ -6270,7 +6353,7 @@
       <c r="AB50" s="161"/>
       <c r="AC50" s="161"/>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
         <v>119</v>
       </c>
@@ -6292,7 +6375,7 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K51" s="67">
         <v>4</v>
@@ -6304,10 +6387,10 @@
       <c r="P51" s="148"/>
       <c r="Q51" s="154"/>
       <c r="R51" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S51" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T51" s="154"/>
       <c r="U51" s="154"/>
@@ -6320,7 +6403,7 @@
       <c r="AB51" s="161"/>
       <c r="AC51" s="161"/>
     </row>
-    <row r="52" spans="2:29">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
         <v>119</v>
       </c>
@@ -6342,7 +6425,7 @@
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K52" s="67">
         <v>8</v>
@@ -6354,10 +6437,10 @@
       <c r="P52" s="148"/>
       <c r="Q52" s="154"/>
       <c r="R52" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S52" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T52" s="154"/>
       <c r="U52" s="154"/>
@@ -6370,7 +6453,7 @@
       <c r="AB52" s="161"/>
       <c r="AC52" s="161"/>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
         <v>119</v>
       </c>
@@ -6392,7 +6475,7 @@
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K53" s="67">
         <v>1</v>
@@ -6404,10 +6487,10 @@
       <c r="P53" s="148"/>
       <c r="Q53" s="154"/>
       <c r="R53" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S53" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T53" s="154"/>
       <c r="U53" s="154"/>
@@ -6420,11 +6503,11 @@
       <c r="AB53" s="161"/>
       <c r="AC53" s="161"/>
     </row>
-    <row r="54" spans="2:29">
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="103"/>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="70" t="s">
         <v>107</v>
       </c>
@@ -6434,7 +6517,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K54" s="3">
         <v>60</v>
@@ -6446,10 +6529,10 @@
       <c r="P54" s="148"/>
       <c r="Q54" s="154"/>
       <c r="R54" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S54" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T54" s="154"/>
       <c r="U54" s="154"/>
@@ -6462,7 +6545,7 @@
       <c r="AB54" s="161"/>
       <c r="AC54" s="161"/>
     </row>
-    <row r="55" spans="2:29">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="67" t="s">
         <v>119</v>
       </c>
@@ -6484,7 +6567,7 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K55" s="67">
         <v>6</v>
@@ -6496,10 +6579,10 @@
       <c r="P55" s="148"/>
       <c r="Q55" s="154"/>
       <c r="R55" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S55" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T55" s="154"/>
       <c r="U55" s="154"/>
@@ -6512,7 +6595,7 @@
       <c r="AB55" s="161"/>
       <c r="AC55" s="161"/>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="67" t="s">
         <v>119</v>
       </c>
@@ -6534,7 +6617,7 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K56" s="67">
         <v>10</v>
@@ -6546,10 +6629,10 @@
       <c r="P56" s="149"/>
       <c r="Q56" s="155"/>
       <c r="R56" s="155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S56" s="155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T56" s="155"/>
       <c r="U56" s="155"/>
@@ -6562,147 +6645,147 @@
       <c r="AB56" s="162"/>
       <c r="AC56" s="162"/>
     </row>
-    <row r="57" spans="2:29">
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="91"/>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="90"/>
       <c r="N57" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="R57" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="S57" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="T57" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="U57" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="V57" s="95"/>
+      <c r="W57" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="R57" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="S57" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="T57" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="U57" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="V57" s="96"/>
-      <c r="W57" s="67" t="s">
-        <v>146</v>
-      </c>
       <c r="X57" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y57" s="67">
         <v>2</v>
       </c>
-      <c r="Z57" s="87"/>
-      <c r="AA57" s="87"/>
-      <c r="AB57" s="87"/>
-      <c r="AC57" s="87"/>
-    </row>
-    <row r="58" spans="2:29">
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="91"/>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="86"/>
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="86"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="90"/>
       <c r="N58" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T58" s="71" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="U58" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="V58" s="96"/>
+        <v>139</v>
+      </c>
+      <c r="V58" s="95"/>
       <c r="W58" s="67" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X58" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y58" s="67">
         <v>2</v>
       </c>
-      <c r="Z58" s="87"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87"/>
-    </row>
-    <row r="59" spans="2:29">
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="97" t="s">
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="86"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="86"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T59" s="71" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U59" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="V59" s="96"/>
+        <v>140</v>
+      </c>
+      <c r="V59" s="95"/>
       <c r="W59" s="67" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X59" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y59" s="67"/>
-      <c r="Z59" s="87"/>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="87"/>
-      <c r="AC59" s="87"/>
-    </row>
-    <row r="60" spans="2:29">
+      <c r="Z59" s="86"/>
+      <c r="AA59" s="86"/>
+      <c r="AB59" s="86"/>
+      <c r="AC59" s="86"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="59"/>
@@ -6725,7 +6808,7 @@
       <c r="U60" s="62"/>
       <c r="V60" s="58"/>
     </row>
-    <row r="61" spans="2:29">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
       <c r="D61" s="59"/>
@@ -6748,7 +6831,7 @@
       <c r="U61" s="62"/>
       <c r="V61" s="58"/>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
       <c r="D62" s="59"/>
@@ -6771,7 +6854,7 @@
       <c r="U62" s="62"/>
       <c r="V62" s="58"/>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
       <c r="D63" s="59"/>
@@ -6794,7 +6877,7 @@
       <c r="U63" s="62"/>
       <c r="V63" s="58"/>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="59"/>
@@ -6817,7 +6900,7 @@
       <c r="U64" s="62"/>
       <c r="V64" s="58"/>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="59"/>
@@ -6840,7 +6923,7 @@
       <c r="U65" s="62"/>
       <c r="V65" s="58"/>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="59"/>
@@ -6863,7 +6946,7 @@
       <c r="U66" s="62"/>
       <c r="V66" s="58"/>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
       <c r="D67" s="59"/>
@@ -6886,7 +6969,7 @@
       <c r="U67" s="62"/>
       <c r="V67" s="58"/>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="59"/>
@@ -6909,7 +6992,7 @@
       <c r="U68" s="62"/>
       <c r="V68" s="58"/>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
       <c r="D69" s="59"/>
@@ -6932,7 +7015,7 @@
       <c r="U69" s="62"/>
       <c r="V69" s="58"/>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
       <c r="D70" s="59"/>
@@ -6955,7 +7038,7 @@
       <c r="U70" s="62"/>
       <c r="V70" s="58"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
       <c r="D71" s="59"/>
@@ -6978,7 +7061,7 @@
       <c r="U71" s="62"/>
       <c r="V71" s="58"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
       <c r="D72" s="59"/>
@@ -7001,7 +7084,7 @@
       <c r="U72" s="62"/>
       <c r="V72" s="58"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
       <c r="D73" s="59"/>
@@ -7024,7 +7107,7 @@
       <c r="U73" s="62"/>
       <c r="V73" s="58"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
       <c r="D74" s="59"/>
@@ -7047,7 +7130,7 @@
       <c r="U74" s="62"/>
       <c r="V74" s="58"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
       <c r="D75" s="59"/>
@@ -7070,7 +7153,7 @@
       <c r="U75" s="62"/>
       <c r="V75" s="58"/>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="59"/>
@@ -7093,7 +7176,7 @@
       <c r="U76" s="62"/>
       <c r="V76" s="58"/>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
       <c r="D77" s="59"/>
@@ -7116,7 +7199,7 @@
       <c r="U77" s="62"/>
       <c r="V77" s="58"/>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
       <c r="D78" s="59"/>
@@ -7139,7 +7222,7 @@
       <c r="U78" s="62"/>
       <c r="V78" s="58"/>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="58"/>
       <c r="C79" s="58"/>
       <c r="D79" s="59"/>
@@ -7162,7 +7245,7 @@
       <c r="U79" s="62"/>
       <c r="V79" s="58"/>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="59"/>
@@ -7185,7 +7268,7 @@
       <c r="U80" s="62"/>
       <c r="V80" s="58"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="58"/>
       <c r="C81" s="58"/>
       <c r="D81" s="59"/>
@@ -7208,7 +7291,7 @@
       <c r="U81" s="62"/>
       <c r="V81" s="58"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="58"/>
       <c r="C82" s="58"/>
       <c r="D82" s="59"/>
@@ -7276,27 +7359,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7309,7 +7466,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7342,14 +7499,14 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="1:33" ht="25.5" customHeight="1">
+    <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
@@ -7387,7 +7544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="23.25">
+    <row r="3" spans="1:33" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7471,7 +7628,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" ht="48">
+    <row r="4" spans="1:33" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="71" t="s">
         <v>119</v>
@@ -7479,125 +7636,125 @@
       <c r="C4" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>150</v>
+      <c r="D4" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>145</v>
       </c>
       <c r="F4" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="86">
+        <v>2</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="87">
+      <c r="O4" s="97"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="95"/>
+      <c r="W4" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="86">
         <v>2</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="V4" s="96"/>
-      <c r="W4" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="X4" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y4" s="87">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" ht="84">
+    <row r="5" spans="1:33" ht="84" x14ac:dyDescent="0.2">
       <c r="B5" s="71" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>150</v>
+      <c r="D5" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>145</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="87">
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="86">
         <v>1</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="96"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="95"/>
       <c r="N5" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="V5" s="96"/>
-      <c r="W5" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y5" s="87">
+        <v>142</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="86">
         <v>1</v>
       </c>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
@@ -7620,7 +7777,7 @@
       <c r="U6" s="62"/>
       <c r="V6" s="58"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
@@ -7643,7 +7800,7 @@
       <c r="U7" s="62"/>
       <c r="V7" s="58"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
@@ -7666,7 +7823,7 @@
       <c r="U8" s="62"/>
       <c r="V8" s="58"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
@@ -7689,7 +7846,7 @@
       <c r="U9" s="62"/>
       <c r="V9" s="58"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -7712,7 +7869,7 @@
       <c r="U10" s="62"/>
       <c r="V10" s="58"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
@@ -7749,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7757,7 +7914,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="15" customWidth="1"/>
@@ -7765,7 +7922,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="22"/>
@@ -7785,7 +7942,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="21"/>
@@ -7805,7 +7962,7 @@
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
@@ -7830,7 +7987,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="E4" s="17"/>
@@ -7852,7 +8009,7 @@
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="36" t="s">
         <v>51</v>
       </c>
@@ -7860,7 +8017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
@@ -7868,7 +8025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
@@ -7876,7 +8033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
@@ -7884,7 +8041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
@@ -7892,7 +8049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
@@ -7900,7 +8057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
         <v>38</v>
       </c>
@@ -7908,7 +8065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>36</v>
       </c>
@@ -7916,7 +8073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
@@ -7924,7 +8081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
@@ -7932,7 +8089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
@@ -7940,7 +8097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
@@ -7948,7 +8105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>26</v>
       </c>
@@ -7956,7 +8113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
@@ -7964,7 +8121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
@@ -7972,7 +8129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
@@ -7980,7 +8137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -7988,7 +8145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>

--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId3"/>
-    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId4"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="18" r:id="rId5"/>
     <sheet name="Mapeamento - P2" sheetId="17" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
@@ -1976,6 +1976,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,15 +2006,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,14 +2045,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2057,9 +2066,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2081,11 +2087,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2105,15 +2123,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2125,15 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2831,10 +2831,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
@@ -2872,28 +2872,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
@@ -2902,17 +2902,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -2921,84 +2921,92 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3009,14 +3017,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3074,17 +3074,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
@@ -3093,119 +3093,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="89" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="89" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -3219,17 +3219,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
@@ -3241,16 +3241,16 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="141" t="s">
+      <c r="F18" s="145"/>
+      <c r="G18" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -3258,12 +3258,12 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -3277,11 +3277,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
@@ -3322,17 +3322,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
@@ -3344,61 +3344,52 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146" t="s">
+      <c r="F27" s="135"/>
+      <c r="G27" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3415,6 +3406,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3426,13 +3426,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I37" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I46" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
@@ -3480,39 +3527,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -5736,38 +5783,38 @@
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="153" t="s">
+      <c r="N38" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="153" t="s">
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="153" t="s">
+      <c r="U38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="160" t="s">
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="Y38" s="160">
+      <c r="Y38" s="147">
         <v>30</v>
       </c>
-      <c r="Z38" s="160"/>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="160"/>
-      <c r="AC38" s="160"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="147"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="103"/>
@@ -5784,26 +5831,26 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="154"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="154"/>
-      <c r="R39" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S39" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T39" s="154"/>
-      <c r="U39" s="154"/>
-      <c r="V39" s="161"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="161"/>
-      <c r="Y39" s="161"/>
-      <c r="Z39" s="161"/>
-      <c r="AA39" s="161"/>
-      <c r="AB39" s="161"/>
-      <c r="AC39" s="161"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S39" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="103"/>
@@ -5820,26 +5867,26 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="154"/>
-      <c r="R40" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S40" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="154"/>
-      <c r="U40" s="154"/>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="161"/>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
-      <c r="AA40" s="161"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S40" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="67" t="s">
@@ -5870,26 +5917,26 @@
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="154"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S41" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T41" s="154"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="161"/>
-      <c r="Y41" s="161"/>
-      <c r="Z41" s="161"/>
-      <c r="AA41" s="161"/>
-      <c r="AB41" s="161"/>
-      <c r="AC41" s="161"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S41" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="148"/>
+      <c r="X41" s="148"/>
+      <c r="Y41" s="148"/>
+      <c r="Z41" s="148"/>
+      <c r="AA41" s="148"/>
+      <c r="AB41" s="148"/>
+      <c r="AC41" s="148"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
@@ -5920,26 +5967,26 @@
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S42" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="161"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="161"/>
-      <c r="Y42" s="161"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S42" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="67" t="s">
@@ -5970,26 +6017,26 @@
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="148"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S43" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="161"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="161"/>
-      <c r="Y43" s="161"/>
-      <c r="Z43" s="161"/>
-      <c r="AA43" s="161"/>
-      <c r="AB43" s="161"/>
-      <c r="AC43" s="161"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S43" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
@@ -6020,26 +6067,26 @@
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S44" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="154"/>
-      <c r="U44" s="154"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="161"/>
-      <c r="AA44" s="161"/>
-      <c r="AB44" s="161"/>
-      <c r="AC44" s="161"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S44" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
@@ -6070,26 +6117,26 @@
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="154"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="154"/>
-      <c r="R45" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S45" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="154"/>
-      <c r="U45" s="154"/>
-      <c r="V45" s="161"/>
-      <c r="W45" s="161"/>
-      <c r="X45" s="161"/>
-      <c r="Y45" s="161"/>
-      <c r="Z45" s="161"/>
-      <c r="AA45" s="161"/>
-      <c r="AB45" s="161"/>
-      <c r="AC45" s="161"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="148"/>
+      <c r="Y45" s="148"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="67" t="s">
@@ -6120,26 +6167,26 @@
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="161"/>
-      <c r="W46" s="161"/>
-      <c r="X46" s="161"/>
-      <c r="Y46" s="161"/>
-      <c r="Z46" s="161"/>
-      <c r="AA46" s="161"/>
-      <c r="AB46" s="161"/>
-      <c r="AC46" s="161"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="148"/>
+      <c r="X46" s="148"/>
+      <c r="Y46" s="148"/>
+      <c r="Z46" s="148"/>
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="148"/>
+      <c r="AC46" s="148"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="67" t="s">
@@ -6170,26 +6217,26 @@
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="154"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S47" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T47" s="154"/>
-      <c r="U47" s="154"/>
-      <c r="V47" s="161"/>
-      <c r="W47" s="161"/>
-      <c r="X47" s="161"/>
-      <c r="Y47" s="161"/>
-      <c r="Z47" s="161"/>
-      <c r="AA47" s="161"/>
-      <c r="AB47" s="161"/>
-      <c r="AC47" s="161"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="151"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="148"/>
+      <c r="AC47" s="148"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
@@ -6220,26 +6267,26 @@
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="S48" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="162"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="162"/>
-      <c r="Z48" s="162"/>
-      <c r="AA48" s="162"/>
-      <c r="AB48" s="162"/>
-      <c r="AC48" s="162"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="S48" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48" s="152"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="149"/>
+      <c r="AC48" s="149"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="67" t="s">
@@ -6270,38 +6317,38 @@
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="153" t="s">
+      <c r="N49" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="S49" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="153" t="s">
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S49" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="T49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="153" t="s">
+      <c r="U49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160" t="s">
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="Y49" s="160">
+      <c r="Y49" s="147">
         <v>15</v>
       </c>
-      <c r="Z49" s="160"/>
-      <c r="AA49" s="160"/>
-      <c r="AB49" s="160"/>
-      <c r="AC49" s="160"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="67" t="s">
@@ -6332,26 +6379,26 @@
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="161"/>
-      <c r="W50" s="161"/>
-      <c r="X50" s="161"/>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
-      <c r="AA50" s="161"/>
-      <c r="AB50" s="161"/>
-      <c r="AC50" s="161"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="148"/>
+      <c r="AC50" s="148"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
@@ -6382,26 +6429,26 @@
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="154"/>
-      <c r="O51" s="148"/>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S51" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="161"/>
-      <c r="W51" s="161"/>
-      <c r="X51" s="161"/>
-      <c r="Y51" s="161"/>
-      <c r="Z51" s="161"/>
-      <c r="AA51" s="161"/>
-      <c r="AB51" s="161"/>
-      <c r="AC51" s="161"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S51" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="148"/>
+      <c r="AB51" s="148"/>
+      <c r="AC51" s="148"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
@@ -6432,26 +6479,26 @@
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="148"/>
-      <c r="P52" s="148"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S52" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="161"/>
-      <c r="W52" s="161"/>
-      <c r="X52" s="161"/>
-      <c r="Y52" s="161"/>
-      <c r="Z52" s="161"/>
-      <c r="AA52" s="161"/>
-      <c r="AB52" s="161"/>
-      <c r="AC52" s="161"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="151"/>
+      <c r="R52" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S52" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T52" s="151"/>
+      <c r="U52" s="151"/>
+      <c r="V52" s="148"/>
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="148"/>
+      <c r="AC52" s="148"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
@@ -6482,26 +6529,26 @@
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S53" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T53" s="154"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="161"/>
-      <c r="W53" s="161"/>
-      <c r="X53" s="161"/>
-      <c r="Y53" s="161"/>
-      <c r="Z53" s="161"/>
-      <c r="AA53" s="161"/>
-      <c r="AB53" s="161"/>
-      <c r="AC53" s="161"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S53" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="148"/>
+      <c r="Y53" s="148"/>
+      <c r="Z53" s="148"/>
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="148"/>
+      <c r="AC53" s="148"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="103"/>
@@ -6524,26 +6571,26 @@
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="161"/>
-      <c r="W54" s="161"/>
-      <c r="X54" s="161"/>
-      <c r="Y54" s="161"/>
-      <c r="Z54" s="161"/>
-      <c r="AA54" s="161"/>
-      <c r="AB54" s="161"/>
-      <c r="AC54" s="161"/>
+      <c r="N54" s="151"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="67" t="s">
@@ -6574,26 +6621,26 @@
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="148"/>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T55" s="154"/>
-      <c r="U55" s="154"/>
-      <c r="V55" s="161"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="161"/>
-      <c r="Y55" s="161"/>
-      <c r="Z55" s="161"/>
-      <c r="AA55" s="161"/>
-      <c r="AB55" s="161"/>
-      <c r="AC55" s="161"/>
+      <c r="N55" s="151"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="151"/>
+      <c r="R55" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T55" s="151"/>
+      <c r="U55" s="151"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="148"/>
+      <c r="AC55" s="148"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="67" t="s">
@@ -6624,26 +6671,26 @@
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="S56" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="T56" s="155"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="162"/>
-      <c r="W56" s="162"/>
-      <c r="X56" s="162"/>
-      <c r="Y56" s="162"/>
-      <c r="Z56" s="162"/>
-      <c r="AA56" s="162"/>
-      <c r="AB56" s="162"/>
-      <c r="AC56" s="162"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="149"/>
+      <c r="Y56" s="149"/>
+      <c r="Z56" s="149"/>
+      <c r="AA56" s="149"/>
+      <c r="AB56" s="149"/>
+      <c r="AC56" s="149"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="90"/>
@@ -7316,25 +7363,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7351,58 +7379,30 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -7507,39 +7507,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -8164,6 +8164,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8212,17 +8216,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8231,7 +8225,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8246,15 +8254,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8267,12 +8275,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="18" r:id="rId5"/>
     <sheet name="Mapeamento - P2" sheetId="17" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -953,6 +953,9 @@
     <t>Sem Transformação</t>
   </si>
   <si>
+    <t>Carregar com nulo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se COD_TIPO_ATUACAO IS NOT NULL entao
       SELECT CASE IND_TIPO_CONTRATO 
         WHEN 'F' THEN RI.COD_VERBA_RH
@@ -989,7 +992,28 @@
     <t>PRO_OBTEM_CENTRO_RESULTADO(COD_TIPO_CURSO, COD_CAMPUS, NVL( COD_CURSO, COD_CURSO_EXTENSAO), COD_TURNO, NOM_PROCESSO, COD_TIPO_ATUACAO, COD_INSTITUICAO)</t>
   </si>
   <si>
+    <t>Carregar com 'PRO_APURACAO_ATUACAO_FIXA'</t>
+  </si>
+  <si>
     <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
+          THEN
+            --
+            V_VALOR_MOVIMENTO := (R_AP.VALOR_FIXO / 30) * V_QTDE_DIAS_TRAB;
+            --
+          ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
+          THEN
+            --
+            IF NVL(R_AP.VALOR_HORA, 0) &gt; 0
+            THEN
+              V_VALOR_MOVIMENTO := ((R_AP.VALOR_HORA * R_AP.HORA_FIXA) / 30) * V_QTDE_DIAS_TRAB;
+            ELSE
+              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
+            END IF;
+            --
+          END IF;</t>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -1030,54 +1054,6 @@
     <t>Complexidade: Simples</t>
   </si>
   <si>
-    <t>MES_REFERENCIA_ATUACAO</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO_RH</t>
-  </si>
-  <si>
-    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
-  </si>
-  <si>
-    <t>Preencher com o valor fixo 'N'</t>
-  </si>
-  <si>
-    <t>Preencher com o valor Fixo '0'</t>
-  </si>
-  <si>
-    <t>FLAG_RETROATIVO</t>
-  </si>
-  <si>
-    <t>IND_APTO_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>DATA_ALOCACAO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>IND_DESTINO</t>
-  </si>
-  <si>
-    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
-    THEN
-      V_DESTINO := 1;
-   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
-     THEN
-      V_DESTINO := 2;
-  END IF;</t>
-  </si>
-  <si>
-    <t>IF IND_AUTORIZACAO = 3 
-ELSIF IND_FIXO_VARIAVEL = 'V' 
-ELSIF IND_TIPO_SALARIO in ('H','M') 
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>REMUNERACAO_DOCENTE</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
     </r>
@@ -1087,51 +1063,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Vanessa Felix</t>
+      <t>Rafae Chaves</t>
     </r>
   </si>
   <si>
-    <t>Vanessa Felix</t>
-  </si>
-  <si>
-    <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
-  </si>
-  <si>
-    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
-          THEN
-            --
- ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
-          THEN
-            --
-            IF NVL(R_AP.VALOR_HORA, 0) &lt; 0
-            THEN
-              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
-            END IF;
-            --
-          END IF;</t>
-  </si>
-  <si>
-    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
-          THEN
-            --
-            V_VALOR_MOVIMENTO := (R_AP.VALOR_FIXO / 30) * V_QTDE_DIAS_TRAB;
-            --
-          ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
-          THEN
-            --
-            IF NVL(R_AP.VALOR_HORA, 0) &gt; 0
-            THEN
-              V_VALOR_MOVIMENTO := ((R_AP.VALOR_HORA * R_AP.HORA_FIXA) / 30) * V_QTDE_DIAS_TRAB;
-            END IF;
-            --
-          END IF;</t>
+    <t>Rafael Chaves</t>
+  </si>
+  <si>
+    <t>MES_REFERENCIA_ATUACAO</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO_RH</t>
+  </si>
+  <si>
+    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
+  </si>
+  <si>
+    <t>Preencher com o valor fixo 'N'</t>
+  </si>
+  <si>
+    <t>Preencher com o valor Fixo '0'</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DATA_ALOCACAO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
+    THEN
+      V_DESTINO := 1;
+   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
+     THEN
+      V_DESTINO := 2;
+  END IF;</t>
+  </si>
+  <si>
+    <t>IF IND_AUTORIZACAO = 3 
+ELSIF IND_FIXO_VARIAVEL = 'V' 
+ELSIF IND_TIPO_SALARIO in ('H','M') 
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>REMUNERACAO_DOCENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1888,6 +1879,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1973,119 +1967,155 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2095,45 +2125,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2157,7 +2148,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2187,7 +2178,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2254,7 +2245,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2302,7 +2293,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2325,14 +2316,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2375,7 +2366,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2398,14 +2389,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2419,98 +2410,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18435" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s18435"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s19457"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2600,7 +2499,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2635,7 +2533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2811,17 +2708,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="15" customWidth="1"/>
@@ -2830,36 +2725,36 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="116"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="C5" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="C6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -2870,143 +2765,135 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3017,6 +2904,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3026,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3034,7 +2929,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="15" customWidth="1"/>
@@ -3043,7 +2938,7 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
@@ -3052,16 +2947,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="41" t="str">
         <f>Identificação!D3</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -3072,142 +2967,142 @@
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="134" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="89" t="s">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="90" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="89" t="s">
-        <v>126</v>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="89" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="89" t="s">
-        <v>133</v>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="89" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="90" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="89" t="s">
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="90" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="90" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3218,20 +3113,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="138" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="46" t="s">
         <v>62</v>
       </c>
@@ -3241,31 +3136,31 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3276,14 +3171,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="138" t="s">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B21" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="45" t="s">
         <v>63</v>
       </c>
@@ -3294,23 +3189,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="87"/>
+    <row r="23" spans="2:10">
+      <c r="B23" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="88"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>135</v>
+    <row r="24" spans="2:10" ht="25.5">
+      <c r="B24" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>140</v>
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3321,20 +3216,20 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+    <row r="26" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B26" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
@@ -3344,52 +3239,61 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3406,15 +3310,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3425,67 +3320,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I46" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3519,52 +3389,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3648,7 +3518,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B4" s="67" t="s">
         <v>119</v>
       </c>
@@ -3670,7 +3540,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K4" s="67">
         <v>10</v>
@@ -3686,10 +3556,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3697,10 +3567,10 @@
       <c r="U4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="83"/>
+      <c r="V4" s="84"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="67">
         <v>10</v>
@@ -3710,7 +3580,7 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
       <c r="B5" s="67" t="s">
         <v>119</v>
       </c>
@@ -3732,7 +3602,7 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K5" s="67">
         <v>10</v>
@@ -3748,10 +3618,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3759,10 +3629,10 @@
       <c r="U5" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="83"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y5" s="67">
         <v>10</v>
@@ -3772,7 +3642,7 @@
       <c r="AB5" s="67"/>
       <c r="AC5" s="67"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
@@ -3794,7 +3664,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K6" s="67">
         <v>2</v>
@@ -3810,10 +3680,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3821,10 +3691,10 @@
       <c r="U6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="84"/>
+      <c r="V6" s="85"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y6" s="67">
         <v>2</v>
@@ -3834,7 +3704,7 @@
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B7" s="67" t="s">
         <v>119</v>
       </c>
@@ -3856,7 +3726,7 @@
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
@@ -3870,10 +3740,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3881,10 +3751,10 @@
       <c r="U7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V7" s="85"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y7" s="67"/>
       <c r="Z7" s="67"/>
@@ -3892,7 +3762,7 @@
       <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B8" s="67" t="s">
         <v>119</v>
       </c>
@@ -3914,7 +3784,7 @@
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
@@ -3928,10 +3798,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3939,10 +3809,10 @@
       <c r="U8" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="83"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -3950,7 +3820,7 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B9" s="67" t="s">
         <v>119</v>
       </c>
@@ -3972,7 +3842,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K9" s="67">
         <v>4</v>
@@ -3988,10 +3858,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3999,10 +3869,10 @@
       <c r="U9" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="83"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="66"/>
       <c r="X9" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y9" s="67">
         <v>4</v>
@@ -4012,7 +3882,7 @@
       <c r="AB9" s="69"/>
       <c r="AC9" s="69"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B10" s="67" t="s">
         <v>119</v>
       </c>
@@ -4034,7 +3904,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K10" s="67">
         <v>1</v>
@@ -4050,10 +3920,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -4061,10 +3931,10 @@
       <c r="U10" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="83"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="66"/>
       <c r="X10" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y10" s="67">
         <v>1</v>
@@ -4074,7 +3944,7 @@
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B11" s="67" t="s">
         <v>119</v>
       </c>
@@ -4096,7 +3966,7 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K11" s="67">
         <v>4</v>
@@ -4112,10 +3982,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -4123,10 +3993,10 @@
       <c r="U11" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="83"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="66"/>
       <c r="X11" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y11" s="67">
         <v>4</v>
@@ -4136,7 +4006,7 @@
       <c r="AB11" s="69"/>
       <c r="AC11" s="69"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="67" t="s">
         <v>119</v>
       </c>
@@ -4158,7 +4028,7 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K12" s="67">
         <v>8</v>
@@ -4174,10 +4044,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4185,10 +4055,10 @@
       <c r="U12" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="V12" s="84"/>
+      <c r="V12" s="85"/>
       <c r="W12" s="66"/>
       <c r="X12" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y12" s="67">
         <v>8</v>
@@ -4198,7 +4068,7 @@
       <c r="AB12" s="69"/>
       <c r="AC12" s="69"/>
     </row>
-    <row r="13" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B13" s="67" t="s">
         <v>119</v>
       </c>
@@ -4220,7 +4090,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K13" s="69">
         <v>12</v>
@@ -4238,10 +4108,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4249,10 +4119,10 @@
       <c r="U13" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="85"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="66"/>
       <c r="X13" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y13" s="69">
         <v>12</v>
@@ -4264,7 +4134,7 @@
       <c r="AB13" s="69"/>
       <c r="AC13" s="69"/>
     </row>
-    <row r="14" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B14" s="67" t="s">
         <v>119</v>
       </c>
@@ -4286,7 +4156,7 @@
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K14" s="67">
         <v>6</v>
@@ -4304,10 +4174,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4315,10 +4185,10 @@
       <c r="U14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V14" s="85"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="66"/>
       <c r="X14" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y14" s="67">
         <v>6</v>
@@ -4330,7 +4200,7 @@
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
     </row>
-    <row r="15" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B15" s="67" t="s">
         <v>119</v>
       </c>
@@ -4352,7 +4222,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K15" s="67">
         <v>6</v>
@@ -4370,10 +4240,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4381,10 +4251,10 @@
       <c r="U15" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="85"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="66"/>
       <c r="X15" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y15" s="67">
         <v>6</v>
@@ -4396,7 +4266,7 @@
       <c r="AB15" s="69"/>
       <c r="AC15" s="69"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1">
       <c r="B16" s="67" t="s">
         <v>119</v>
       </c>
@@ -4418,7 +4288,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K16" s="67">
         <v>11</v>
@@ -4434,10 +4304,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4445,10 +4315,10 @@
       <c r="U16" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="V16" s="86"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y16" s="67">
         <v>1</v>
@@ -4458,7 +4328,7 @@
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="67" t="s">
         <v>119</v>
       </c>
@@ -4480,7 +4350,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4496,10 +4366,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4507,10 +4377,10 @@
       <c r="U17" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="86"/>
+      <c r="V17" s="87"/>
       <c r="W17" s="67"/>
       <c r="X17" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4520,7 +4390,7 @@
       <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1">
       <c r="B18" s="67" t="s">
         <v>119</v>
       </c>
@@ -4542,7 +4412,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K18" s="67">
         <v>1</v>
@@ -4558,10 +4428,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4569,10 +4439,10 @@
       <c r="U18" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="V18" s="86"/>
+      <c r="V18" s="87"/>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y18" s="67">
         <v>11</v>
@@ -4582,7 +4452,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B19" s="67" t="s">
         <v>119</v>
       </c>
@@ -4604,7 +4474,7 @@
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K19" s="67">
         <v>8</v>
@@ -4621,11 +4491,11 @@
       <c r="Q19" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S19" s="107" t="s">
-        <v>145</v>
+      <c r="R19" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="S19" s="108" t="s">
+        <v>150</v>
       </c>
       <c r="T19" s="71" t="s">
         <v>91</v>
@@ -4633,10 +4503,10 @@
       <c r="U19" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="86"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y19" s="67">
         <v>8</v>
@@ -4648,7 +4518,7 @@
       <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="67" t="s">
         <v>119</v>
       </c>
@@ -4670,7 +4540,7 @@
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
       <c r="J20" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K20" s="67">
         <v>5</v>
@@ -4686,10 +4556,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4697,10 +4567,10 @@
       <c r="U20" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="V20" s="86"/>
+      <c r="V20" s="87"/>
       <c r="W20" s="67"/>
       <c r="X20" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y20" s="67">
         <v>5</v>
@@ -4710,7 +4580,7 @@
       <c r="AB20" s="67"/>
       <c r="AC20" s="67"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="67" t="s">
         <v>119</v>
       </c>
@@ -4732,7 +4602,7 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K21" s="67">
         <v>10</v>
@@ -4748,10 +4618,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4759,10 +4629,10 @@
       <c r="U21" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="86"/>
+      <c r="V21" s="87"/>
       <c r="W21" s="67"/>
       <c r="X21" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y21" s="67">
         <v>10</v>
@@ -4772,7 +4642,7 @@
       <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="B22" s="67" t="s">
         <v>119</v>
       </c>
@@ -4794,7 +4664,7 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="67">
         <v>2</v>
@@ -4810,10 +4680,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4821,10 +4691,10 @@
       <c r="U22" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="86"/>
+      <c r="V22" s="87"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y22" s="67">
         <v>2</v>
@@ -4834,7 +4704,7 @@
       <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="B23" s="67" t="s">
         <v>119</v>
       </c>
@@ -4856,7 +4726,7 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K23" s="67">
         <v>15</v>
@@ -4872,10 +4742,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4883,10 +4753,10 @@
       <c r="U23" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="V23" s="86"/>
+      <c r="V23" s="87"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y23" s="67">
         <v>15</v>
@@ -4896,7 +4766,7 @@
       <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="67" t="s">
         <v>119</v>
       </c>
@@ -4918,7 +4788,7 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K24" s="67">
         <v>2</v>
@@ -4934,10 +4804,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4945,10 +4815,10 @@
       <c r="U24" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="V24" s="86"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y24" s="67">
         <v>2</v>
@@ -4958,7 +4828,7 @@
       <c r="AB24" s="67"/>
       <c r="AC24" s="67"/>
     </row>
-    <row r="25" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="24">
       <c r="B25" s="67" t="s">
         <v>119</v>
       </c>
@@ -4980,7 +4850,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K25" s="67">
         <v>5</v>
@@ -4995,11 +4865,11 @@
       <c r="Q25" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S25" s="107" t="s">
-        <v>145</v>
+      <c r="R25" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="S25" s="108" t="s">
+        <v>150</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>97</v>
@@ -5007,10 +4877,10 @@
       <c r="U25" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="V25" s="86"/>
+      <c r="V25" s="87"/>
       <c r="W25" s="67"/>
       <c r="X25" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y25" s="67">
         <v>5</v>
@@ -5020,7 +4890,7 @@
       <c r="AB25" s="67"/>
       <c r="AC25" s="67"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="B26" s="67" t="s">
         <v>119</v>
       </c>
@@ -5042,7 +4912,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K26" s="67">
         <v>11</v>
@@ -5058,10 +4928,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -5069,10 +4939,10 @@
       <c r="U26" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V26" s="86"/>
+      <c r="V26" s="87"/>
       <c r="W26" s="67"/>
       <c r="X26" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y26" s="67">
         <v>11</v>
@@ -5082,7 +4952,7 @@
       <c r="AB26" s="67"/>
       <c r="AC26" s="67"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="B27" s="67" t="s">
         <v>119</v>
       </c>
@@ -5104,7 +4974,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K27" s="67">
         <v>3</v>
@@ -5120,10 +4990,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5131,10 +5001,10 @@
       <c r="U27" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="V27" s="86"/>
+      <c r="V27" s="87"/>
       <c r="W27" s="67"/>
       <c r="X27" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y27" s="67">
         <v>3</v>
@@ -5144,7 +5014,7 @@
       <c r="AB27" s="67"/>
       <c r="AC27" s="67"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="B28" s="67" t="s">
         <v>119</v>
       </c>
@@ -5166,7 +5036,7 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K28" s="67">
         <v>5</v>
@@ -5182,10 +5052,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5193,10 +5063,10 @@
       <c r="U28" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="V28" s="86"/>
+      <c r="V28" s="87"/>
       <c r="W28" s="67"/>
       <c r="X28" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y28" s="67">
         <v>5</v>
@@ -5206,7 +5076,7 @@
       <c r="AB28" s="67"/>
       <c r="AC28" s="67"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="B29" s="67" t="s">
         <v>119</v>
       </c>
@@ -5228,7 +5098,7 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K29" s="67">
         <v>1</v>
@@ -5244,10 +5114,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5255,10 +5125,10 @@
       <c r="U29" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="V29" s="86"/>
+      <c r="V29" s="87"/>
       <c r="W29" s="67"/>
       <c r="X29" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y29" s="67">
         <v>1</v>
@@ -5268,7 +5138,7 @@
       <c r="AB29" s="67"/>
       <c r="AC29" s="67"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="B30" s="67" t="s">
         <v>119</v>
       </c>
@@ -5284,13 +5154,13 @@
       <c r="F30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="83" t="s">
         <v>102</v>
       </c>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K30" s="67">
         <v>3</v>
@@ -5306,10 +5176,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5317,10 +5187,10 @@
       <c r="U30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="V30" s="86"/>
+      <c r="V30" s="87"/>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y30" s="67">
         <v>3</v>
@@ -5330,7 +5200,7 @@
       <c r="AB30" s="67"/>
       <c r="AC30" s="67"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="B31" s="67" t="s">
         <v>119</v>
       </c>
@@ -5338,12 +5208,12 @@
         <v>120</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="81" t="s">
         <v>104</v>
       </c>
       <c r="G31" s="70" t="s">
@@ -5352,7 +5222,7 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K31" s="67">
         <v>6</v>
@@ -5368,10 +5238,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5379,10 +5249,10 @@
       <c r="U31" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V31" s="86"/>
+      <c r="V31" s="87"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y31" s="67">
         <v>6</v>
@@ -5392,7 +5262,7 @@
       <c r="AB31" s="67"/>
       <c r="AC31" s="67"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="B32" s="67" t="s">
         <v>119</v>
       </c>
@@ -5405,7 +5275,7 @@
       <c r="E32" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="81" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="70" t="s">
@@ -5414,7 +5284,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K32" s="67">
         <v>1</v>
@@ -5430,21 +5300,21 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="T32" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="T32" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="U32" s="80" t="s">
+      <c r="U32" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="V32" s="86"/>
+      <c r="V32" s="87"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y32" s="67">
         <v>1</v>
@@ -5454,7 +5324,7 @@
       <c r="AB32" s="67"/>
       <c r="AC32" s="67"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="67" t="s">
         <v>119</v>
       </c>
@@ -5476,7 +5346,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K33" s="67">
         <v>1</v>
@@ -5492,10 +5362,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5503,10 +5373,10 @@
       <c r="U33" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="86"/>
+      <c r="V33" s="87"/>
       <c r="W33" s="67"/>
       <c r="X33" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y33" s="67">
         <v>1</v>
@@ -5516,7 +5386,7 @@
       <c r="AB33" s="67"/>
       <c r="AC33" s="67"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="67" t="s">
         <v>119</v>
       </c>
@@ -5538,7 +5408,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K34" s="67">
         <v>1</v>
@@ -5554,10 +5424,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5565,10 +5435,10 @@
       <c r="U34" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="V34" s="86"/>
+      <c r="V34" s="87"/>
       <c r="W34" s="67"/>
       <c r="X34" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y34" s="67">
         <v>1</v>
@@ -5578,19 +5448,19 @@
       <c r="AB34" s="67"/>
       <c r="AC34" s="67"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="101"/>
+    <row r="35" spans="2:29">
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="67" t="s">
         <v>107</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -5598,7 +5468,7 @@
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -5606,10 +5476,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5617,12 +5487,12 @@
       <c r="U35" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="V35" s="86"/>
+      <c r="V35" s="87"/>
       <c r="W35" s="67" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5632,7 +5502,7 @@
       <c r="AB35" s="67"/>
       <c r="AC35" s="67"/>
     </row>
-    <row r="36" spans="2:29" ht="192" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" ht="228">
       <c r="B36" s="67" t="s">
         <v>119</v>
       </c>
@@ -5654,7 +5524,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K36" s="67">
         <v>12</v>
@@ -5663,30 +5533,30 @@
         <v>2</v>
       </c>
       <c r="M36" s="67"/>
-      <c r="N36" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="R36" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S36" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="T36" s="81" t="s">
+      <c r="N36" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S36" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="T36" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="U36" s="106" t="s">
+      <c r="U36" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="86"/>
+      <c r="V36" s="87"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y36" s="67">
         <v>12</v>
@@ -5698,19 +5568,19 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="67"/>
     </row>
-    <row r="37" spans="2:29" ht="156" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="105"/>
+    <row r="37" spans="2:29">
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="71" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
       <c r="J37" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K37" s="67">
         <v>6</v>
@@ -5719,19 +5589,19 @@
         <v>2</v>
       </c>
       <c r="M37" s="67"/>
-      <c r="N37" s="71" t="s">
-        <v>149</v>
+      <c r="N37" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="O37" s="63"/>
       <c r="P37" s="64"/>
-      <c r="Q37" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S37" s="107" t="s">
-        <v>145</v>
+      <c r="Q37" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S37" s="65" t="s">
+        <v>150</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5739,10 +5609,10 @@
       <c r="U37" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V37" s="86"/>
+      <c r="V37" s="87"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y37" s="67">
         <v>6</v>
@@ -5754,7 +5624,7 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="67"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38" s="67" t="s">
         <v>119</v>
       </c>
@@ -5776,54 +5646,54 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K38" s="67">
         <v>1</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="150" t="s">
+      <c r="N38" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="S38" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="150" t="s">
+      <c r="U38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y38" s="147">
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y38" s="160">
         <v>30</v>
       </c>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="147"/>
-      <c r="AB38" s="147"/>
-      <c r="AC38" s="147"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -5831,35 +5701,35 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S39" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S39" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
       <c r="G40" s="70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
@@ -5867,28 +5737,28 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S40" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="148"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N40" s="154"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S40" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" s="67" t="s">
         <v>119</v>
       </c>
@@ -5910,35 +5780,35 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K41" s="67">
         <v>2</v>
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S41" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="148"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="148"/>
-      <c r="AA41" s="148"/>
-      <c r="AB41" s="148"/>
-      <c r="AC41" s="148"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N41" s="154"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S41" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="161"/>
+      <c r="AA41" s="161"/>
+      <c r="AB41" s="161"/>
+      <c r="AC41" s="161"/>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42" s="67" t="s">
         <v>119</v>
       </c>
@@ -5960,35 +5830,35 @@
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K42" s="67">
         <v>4</v>
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S42" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
-      <c r="AC42" s="148"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N42" s="154"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S42" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+    </row>
+    <row r="43" spans="2:29">
       <c r="B43" s="67" t="s">
         <v>119</v>
       </c>
@@ -6010,35 +5880,35 @@
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K43" s="67">
         <v>8</v>
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S43" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="148"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="148"/>
-      <c r="AB43" s="148"/>
-      <c r="AC43" s="148"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N43" s="154"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S43" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="161"/>
+      <c r="AA43" s="161"/>
+      <c r="AB43" s="161"/>
+      <c r="AC43" s="161"/>
+    </row>
+    <row r="44" spans="2:29">
       <c r="B44" s="67" t="s">
         <v>119</v>
       </c>
@@ -6060,35 +5930,35 @@
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K44" s="67">
         <v>4</v>
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S44" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="148"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="148"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="148"/>
-      <c r="AB44" s="148"/>
-      <c r="AC44" s="148"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N44" s="154"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S44" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
+    </row>
+    <row r="45" spans="2:29">
       <c r="B45" s="67" t="s">
         <v>119</v>
       </c>
@@ -6110,35 +5980,35 @@
       <c r="H45" s="67"/>
       <c r="I45" s="67"/>
       <c r="J45" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K45" s="67">
         <v>1</v>
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S45" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-      <c r="AA45" s="148"/>
-      <c r="AB45" s="148"/>
-      <c r="AC45" s="148"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N45" s="154"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S45" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+      <c r="AA45" s="161"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" s="67" t="s">
         <v>119</v>
       </c>
@@ -6160,35 +6030,35 @@
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K46" s="67">
         <v>3</v>
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="148"/>
-      <c r="X46" s="148"/>
-      <c r="Y46" s="148"/>
-      <c r="Z46" s="148"/>
-      <c r="AA46" s="148"/>
-      <c r="AB46" s="148"/>
-      <c r="AC46" s="148"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N46" s="154"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S46" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+      <c r="AA46" s="161"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" s="67" t="s">
         <v>119</v>
       </c>
@@ -6210,35 +6080,35 @@
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
       <c r="J47" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K47" s="67">
         <v>6</v>
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S47" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N47" s="154"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S47" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="161"/>
+      <c r="AA47" s="161"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" s="67" t="s">
         <v>119</v>
       </c>
@@ -6260,35 +6130,35 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K48" s="67">
         <v>10</v>
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="S48" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="152"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="149"/>
-      <c r="AC48" s="149"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N48" s="155"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="S48" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
+    </row>
+    <row r="49" spans="2:29">
       <c r="B49" s="67" t="s">
         <v>119</v>
       </c>
@@ -6310,47 +6180,47 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K49" s="67">
         <v>3</v>
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="150" t="s">
-        <v>125</v>
-      </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="S49" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="150" t="s">
+      <c r="N49" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="S49" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="T49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="150" t="s">
+      <c r="U49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y49" s="147">
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y49" s="160">
         <v>15</v>
       </c>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z49" s="160"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="160"/>
+      <c r="AC49" s="160"/>
+    </row>
+    <row r="50" spans="2:29">
       <c r="B50" s="67" t="s">
         <v>119</v>
       </c>
@@ -6372,35 +6242,35 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K50" s="67">
         <v>4</v>
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="148"/>
-      <c r="AC50" s="148"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N50" s="154"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S50" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="161"/>
+      <c r="W50" s="161"/>
+      <c r="X50" s="161"/>
+      <c r="Y50" s="161"/>
+      <c r="Z50" s="161"/>
+      <c r="AA50" s="161"/>
+      <c r="AB50" s="161"/>
+      <c r="AC50" s="161"/>
+    </row>
+    <row r="51" spans="2:29">
       <c r="B51" s="67" t="s">
         <v>119</v>
       </c>
@@ -6422,35 +6292,35 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K51" s="67">
         <v>4</v>
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S51" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N51" s="154"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S51" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161"/>
+      <c r="Z51" s="161"/>
+      <c r="AA51" s="161"/>
+      <c r="AB51" s="161"/>
+      <c r="AC51" s="161"/>
+    </row>
+    <row r="52" spans="2:29">
       <c r="B52" s="67" t="s">
         <v>119</v>
       </c>
@@ -6472,35 +6342,35 @@
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K52" s="67">
         <v>8</v>
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S52" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="148"/>
-      <c r="W52" s="148"/>
-      <c r="X52" s="148"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="148"/>
-      <c r="AA52" s="148"/>
-      <c r="AB52" s="148"/>
-      <c r="AC52" s="148"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N52" s="154"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S52" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="161"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="161"/>
+      <c r="Z52" s="161"/>
+      <c r="AA52" s="161"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
+    </row>
+    <row r="53" spans="2:29">
       <c r="B53" s="67" t="s">
         <v>119</v>
       </c>
@@ -6522,39 +6392,39 @@
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K53" s="67">
         <v>1</v>
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S53" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="148"/>
-      <c r="W53" s="148"/>
-      <c r="X53" s="148"/>
-      <c r="Y53" s="148"/>
-      <c r="Z53" s="148"/>
-      <c r="AA53" s="148"/>
-      <c r="AB53" s="148"/>
-      <c r="AC53" s="148"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="102"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S53" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="161"/>
+      <c r="Z53" s="161"/>
+      <c r="AA53" s="161"/>
+      <c r="AB53" s="161"/>
+      <c r="AC53" s="161"/>
+    </row>
+    <row r="54" spans="2:29">
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="103"/>
       <c r="F54" s="70" t="s">
         <v>107</v>
       </c>
@@ -6564,35 +6434,35 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K54" s="3">
         <v>60</v>
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T54" s="151"/>
-      <c r="U54" s="151"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="148"/>
-      <c r="AB54" s="148"/>
-      <c r="AC54" s="148"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N54" s="154"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S54" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="161"/>
+      <c r="AA54" s="161"/>
+      <c r="AB54" s="161"/>
+      <c r="AC54" s="161"/>
+    </row>
+    <row r="55" spans="2:29">
       <c r="B55" s="67" t="s">
         <v>119</v>
       </c>
@@ -6614,35 +6484,35 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K55" s="67">
         <v>6</v>
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="151"/>
-      <c r="R55" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T55" s="151"/>
-      <c r="U55" s="151"/>
-      <c r="V55" s="148"/>
-      <c r="W55" s="148"/>
-      <c r="X55" s="148"/>
-      <c r="Y55" s="148"/>
-      <c r="Z55" s="148"/>
-      <c r="AA55" s="148"/>
-      <c r="AB55" s="148"/>
-      <c r="AC55" s="148"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N55" s="154"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S55" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
+      <c r="X55" s="161"/>
+      <c r="Y55" s="161"/>
+      <c r="Z55" s="161"/>
+      <c r="AA55" s="161"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
+    </row>
+    <row r="56" spans="2:29">
       <c r="B56" s="67" t="s">
         <v>119</v>
       </c>
@@ -6664,175 +6534,175 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K56" s="67">
         <v>10</v>
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="S56" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="149"/>
-      <c r="Y56" s="149"/>
-      <c r="Z56" s="149"/>
-      <c r="AA56" s="149"/>
-      <c r="AB56" s="149"/>
-      <c r="AC56" s="149"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="90"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="S56" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="162"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="162"/>
+      <c r="Y56" s="162"/>
+      <c r="Z56" s="162"/>
+      <c r="AA56" s="162"/>
+      <c r="AB56" s="162"/>
+      <c r="AC56" s="162"/>
+    </row>
+    <row r="57" spans="2:29">
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="97" t="s">
         <v>120</v>
       </c>
       <c r="R57" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T57" s="71" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="U57" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="V57" s="95"/>
+        <v>143</v>
+      </c>
+      <c r="V57" s="96"/>
       <c r="W57" s="67" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y57" s="67">
         <v>2</v>
       </c>
-      <c r="Z57" s="86"/>
-      <c r="AA57" s="86"/>
-      <c r="AB57" s="86"/>
-      <c r="AC57" s="86"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="90"/>
+      <c r="Z57" s="87"/>
+      <c r="AA57" s="87"/>
+      <c r="AB57" s="87"/>
+      <c r="AC57" s="87"/>
+    </row>
+    <row r="58" spans="2:29">
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="97" t="s">
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T58" s="71" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="U58" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="V58" s="95"/>
+        <v>144</v>
+      </c>
+      <c r="V58" s="96"/>
       <c r="W58" s="67" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="X58" s="67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y58" s="67">
         <v>2</v>
       </c>
-      <c r="Z58" s="86"/>
-      <c r="AA58" s="86"/>
-      <c r="AB58" s="86"/>
-      <c r="AC58" s="86"/>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="96" t="s">
+      <c r="Z58" s="87"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="87"/>
+      <c r="AC58" s="87"/>
+    </row>
+    <row r="59" spans="2:29">
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="97" t="s">
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S59" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="T59" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="S59" s="65" t="s">
+      <c r="U59" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="T59" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="U59" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="V59" s="95"/>
+      <c r="V59" s="96"/>
       <c r="W59" s="67" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="X59" s="67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y59" s="67"/>
-      <c r="Z59" s="86"/>
-      <c r="AA59" s="86"/>
-      <c r="AB59" s="86"/>
-      <c r="AC59" s="86"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z59" s="87"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="87"/>
+      <c r="AC59" s="87"/>
+    </row>
+    <row r="60" spans="2:29">
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="59"/>
@@ -6855,7 +6725,7 @@
       <c r="U60" s="62"/>
       <c r="V60" s="58"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29">
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
       <c r="D61" s="59"/>
@@ -6878,7 +6748,7 @@
       <c r="U61" s="62"/>
       <c r="V61" s="58"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29">
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
       <c r="D62" s="59"/>
@@ -6901,7 +6771,7 @@
       <c r="U62" s="62"/>
       <c r="V62" s="58"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
       <c r="D63" s="59"/>
@@ -6924,7 +6794,7 @@
       <c r="U63" s="62"/>
       <c r="V63" s="58"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="59"/>
@@ -6947,7 +6817,7 @@
       <c r="U64" s="62"/>
       <c r="V64" s="58"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:22">
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="59"/>
@@ -6970,7 +6840,7 @@
       <c r="U65" s="62"/>
       <c r="V65" s="58"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22">
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="59"/>
@@ -6993,7 +6863,7 @@
       <c r="U66" s="62"/>
       <c r="V66" s="58"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22">
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
       <c r="D67" s="59"/>
@@ -7016,7 +6886,7 @@
       <c r="U67" s="62"/>
       <c r="V67" s="58"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22">
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="59"/>
@@ -7039,7 +6909,7 @@
       <c r="U68" s="62"/>
       <c r="V68" s="58"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22">
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
       <c r="D69" s="59"/>
@@ -7062,7 +6932,7 @@
       <c r="U69" s="62"/>
       <c r="V69" s="58"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22">
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
       <c r="D70" s="59"/>
@@ -7085,7 +6955,7 @@
       <c r="U70" s="62"/>
       <c r="V70" s="58"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22">
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
       <c r="D71" s="59"/>
@@ -7108,7 +6978,7 @@
       <c r="U71" s="62"/>
       <c r="V71" s="58"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22">
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
       <c r="D72" s="59"/>
@@ -7131,7 +7001,7 @@
       <c r="U72" s="62"/>
       <c r="V72" s="58"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22">
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
       <c r="D73" s="59"/>
@@ -7154,7 +7024,7 @@
       <c r="U73" s="62"/>
       <c r="V73" s="58"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22">
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
       <c r="D74" s="59"/>
@@ -7177,7 +7047,7 @@
       <c r="U74" s="62"/>
       <c r="V74" s="58"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22">
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
       <c r="D75" s="59"/>
@@ -7200,7 +7070,7 @@
       <c r="U75" s="62"/>
       <c r="V75" s="58"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22">
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="59"/>
@@ -7223,7 +7093,7 @@
       <c r="U76" s="62"/>
       <c r="V76" s="58"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22">
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
       <c r="D77" s="59"/>
@@ -7246,7 +7116,7 @@
       <c r="U77" s="62"/>
       <c r="V77" s="58"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22">
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
       <c r="D78" s="59"/>
@@ -7269,7 +7139,7 @@
       <c r="U78" s="62"/>
       <c r="V78" s="58"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22">
       <c r="B79" s="58"/>
       <c r="C79" s="58"/>
       <c r="D79" s="59"/>
@@ -7292,7 +7162,7 @@
       <c r="U79" s="62"/>
       <c r="V79" s="58"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22">
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="59"/>
@@ -7315,7 +7185,7 @@
       <c r="U80" s="62"/>
       <c r="V80" s="58"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22">
       <c r="B81" s="58"/>
       <c r="C81" s="58"/>
       <c r="D81" s="59"/>
@@ -7338,7 +7208,7 @@
       <c r="U81" s="62"/>
       <c r="V81" s="58"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22">
       <c r="B82" s="58"/>
       <c r="C82" s="58"/>
       <c r="D82" s="59"/>
@@ -7363,6 +7233,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7379,25 +7268,6 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7407,53 +7277,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7466,7 +7309,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7499,52 +7342,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="1:33" ht="25.5" customHeight="1">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7628,7 +7471,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="3" customFormat="1" ht="48">
       <c r="A4" s="2"/>
       <c r="B4" s="71" t="s">
         <v>119</v>
@@ -7636,125 +7479,125 @@
       <c r="C4" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>145</v>
+      <c r="D4" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>150</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="86">
+        <v>144</v>
+      </c>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="87">
         <v>2</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="95"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="96"/>
       <c r="N4" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="98"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="O4" s="97"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>139</v>
-      </c>
       <c r="U4" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="X4" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y4" s="86">
+        <v>144</v>
+      </c>
+      <c r="V4" s="96"/>
+      <c r="W4" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="87">
         <v>2</v>
       </c>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="84">
       <c r="B5" s="71" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>145</v>
+      <c r="D5" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="86">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="87">
         <v>1</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="95"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97" t="s">
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="95"/>
-      <c r="W5" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="X5" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y5" s="86">
+        <v>147</v>
+      </c>
+      <c r="V5" s="96"/>
+      <c r="W5" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="X5" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y5" s="87">
         <v>1</v>
       </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
@@ -7777,7 +7620,7 @@
       <c r="U6" s="62"/>
       <c r="V6" s="58"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
@@ -7800,7 +7643,7 @@
       <c r="U7" s="62"/>
       <c r="V7" s="58"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
@@ -7823,7 +7666,7 @@
       <c r="U8" s="62"/>
       <c r="V8" s="58"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
@@ -7846,7 +7689,7 @@
       <c r="U9" s="62"/>
       <c r="V9" s="58"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -7869,7 +7712,7 @@
       <c r="U10" s="62"/>
       <c r="V10" s="58"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
@@ -7906,7 +7749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7914,7 +7757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="15" customWidth="1"/>
@@ -7922,7 +7765,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="22"/>
@@ -7942,7 +7785,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="21"/>
@@ -7962,7 +7805,7 @@
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
@@ -7987,7 +7830,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="E4" s="17"/>
@@ -8009,7 +7852,7 @@
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="36" t="s">
         <v>51</v>
       </c>
@@ -8017,7 +7860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
@@ -8025,7 +7868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
@@ -8033,7 +7876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
@@ -8041,7 +7884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
@@ -8049,7 +7892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
@@ -8057,7 +7900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="31" t="s">
         <v>38</v>
       </c>
@@ -8065,7 +7908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="31" t="s">
         <v>36</v>
       </c>
@@ -8073,7 +7916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
@@ -8081,7 +7924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
@@ -8089,7 +7932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
@@ -8097,7 +7940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
@@ -8105,7 +7948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="31" t="s">
         <v>26</v>
       </c>
@@ -8113,7 +7956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
@@ -8121,7 +7964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +7972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
@@ -8137,7 +7980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -8145,7 +7988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
@@ -8164,10 +8007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8216,7 +8055,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8225,21 +8074,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8254,15 +8089,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8275,4 +8110,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>